--- a/data/trans_camb/P1414-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P1414-Habitat-trans_camb.xlsx
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.1490443044252023</v>
+        <v>-0.1504101393353886</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.08322163637430385</v>
+        <v>-0.0867591307558694</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.799727635999379</v>
+        <v>-1.623796871499984</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-2.047623948032392</v>
+        <v>-2.03348601503213</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-0.7678347204736641</v>
+        <v>-0.6497367392817273</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-0.750605960894971</v>
+        <v>-0.729085449329245</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.064763806007393</v>
+        <v>1.109979216849239</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.679085311098098</v>
+        <v>1.640313263117936</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.261625792482126</v>
+        <v>2.559210345770778</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.41923726973237</v>
+        <v>1.2905513463151</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>1.387295631337171</v>
+        <v>1.458717962582723</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>1.113208979454224</v>
+        <v>1.079659569168235</v>
       </c>
     </row>
     <row r="7">
@@ -715,16 +715,16 @@
       <c r="C8" s="6" t="inlineStr"/>
       <c r="D8" s="6" t="inlineStr"/>
       <c r="E8" s="6" t="n">
-        <v>-0.4017772133199883</v>
+        <v>-0.3657793358762503</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.4282047616998938</v>
+        <v>-0.4481282171518931</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.350201655705097</v>
+        <v>-0.3103896815023549</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.3397706603848861</v>
+        <v>-0.3403507690241165</v>
       </c>
     </row>
     <row r="9">
@@ -737,16 +737,16 @@
       <c r="C9" s="6" t="inlineStr"/>
       <c r="D9" s="6" t="inlineStr"/>
       <c r="E9" s="6" t="n">
-        <v>0.8981160145239899</v>
+        <v>1.077141289646593</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.57149520347048</v>
+        <v>0.5360726221477023</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.09187354030807</v>
+        <v>1.048040349601977</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.9058273120646373</v>
+        <v>0.8089403230740569</v>
       </c>
     </row>
     <row r="10">
@@ -787,22 +787,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.4315211558169249</v>
+        <v>-0.5182711464347787</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.6423544243742669</v>
+        <v>-0.7519606783740975</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.306439589469829</v>
+        <v>0.2517028044907952</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1.148810622184153</v>
+        <v>1.1717133265271</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1146544279606218</v>
+        <v>0.1231964383366476</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.3732137183531515</v>
+        <v>0.4606093768554534</v>
       </c>
     </row>
     <row r="12">
@@ -813,22 +813,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.5484930678381188</v>
+        <v>0.532043644601616</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.207119684578251</v>
+        <v>0.1365218138871202</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.384435770298724</v>
+        <v>3.473911770416196</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.67303473402816</v>
+        <v>3.767499605411539</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>1.705790021436105</v>
+        <v>1.711307952791121</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>1.75075681440494</v>
+        <v>1.861909599164348</v>
       </c>
     </row>
     <row r="13">
@@ -842,7 +842,7 @@
         <v>0.008693290525074105</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>-0.5078136237455301</v>
+        <v>-0.5078136237455302</v>
       </c>
       <c r="E13" s="6" t="n">
         <v>0.8932930315157624</v>
@@ -864,21 +864,19 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C14" s="6" t="n">
-        <v>-1</v>
-      </c>
+      <c r="C14" s="6" t="inlineStr"/>
       <c r="D14" s="6" t="inlineStr"/>
       <c r="E14" s="6" t="n">
-        <v>0.1077525347793395</v>
+        <v>0.09490521534891115</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.4161181292605634</v>
+        <v>0.4017934059173335</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.06043836213345152</v>
+        <v>0.03167354793709527</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1962174702140502</v>
+        <v>0.2731028111474729</v>
       </c>
     </row>
     <row r="15">
@@ -891,16 +889,16 @@
       <c r="C15" s="6" t="inlineStr"/>
       <c r="D15" s="6" t="inlineStr"/>
       <c r="E15" s="6" t="n">
-        <v>2.334723762994639</v>
+        <v>2.447240937603862</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>2.647389702471463</v>
+        <v>2.770892405766579</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.975752255209335</v>
+        <v>1.94877870027937</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>2.113955813894242</v>
+        <v>2.272191744553323</v>
       </c>
     </row>
     <row r="16">
@@ -941,22 +939,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.2758639289918325</v>
+        <v>-0.2758066550320309</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.07051322252143218</v>
+        <v>-0.1612677451034752</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.3945402763836828</v>
+        <v>-0.3066507488973605</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.3643157514090943</v>
+        <v>-0.2644343285393561</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-0.2475863931584597</v>
+        <v>-0.3571713700237234</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-0.04932219396775636</v>
+        <v>-0.07393688559689042</v>
       </c>
     </row>
     <row r="18">
@@ -967,22 +965,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.670632300091677</v>
+        <v>0.6733758425492298</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.108371871389671</v>
+        <v>1.049510519622298</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2.852947525480086</v>
+        <v>2.996310423811251</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>2.648716062641326</v>
+        <v>2.812670214699398</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>1.586886472852367</v>
+        <v>1.56229332819179</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>1.619266425023332</v>
+        <v>1.633190187697137</v>
       </c>
     </row>
     <row r="19">
@@ -1021,16 +1019,16 @@
       <c r="C20" s="6" t="inlineStr"/>
       <c r="D20" s="6" t="inlineStr"/>
       <c r="E20" s="6" t="n">
-        <v>-0.1942980546472774</v>
+        <v>-0.1909368276922517</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.1323576999423048</v>
+        <v>-0.1082396152140985</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.1958773666357615</v>
+        <v>-0.2425884816022583</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.06727171285069444</v>
+        <v>-0.06934917041497808</v>
       </c>
     </row>
     <row r="21">
@@ -1043,16 +1041,16 @@
       <c r="C21" s="6" t="inlineStr"/>
       <c r="D21" s="6" t="inlineStr"/>
       <c r="E21" s="6" t="n">
-        <v>2.269396465390701</v>
+        <v>2.225740882942941</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>1.930265977625711</v>
+        <v>2.222489740528645</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>2.097955488528777</v>
+        <v>1.993108287874007</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>2.235363496228485</v>
+        <v>2.366494177655524</v>
       </c>
     </row>
     <row r="22">
@@ -1070,7 +1068,7 @@
         <v>0.3776702722249657</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.2728827283067658</v>
+        <v>0.2728827283067657</v>
       </c>
       <c r="E22" s="5" t="n">
         <v>0.2770658098452627</v>
@@ -1082,7 +1080,7 @@
         <v>0.3274257178610313</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>1.214702477874259</v>
+        <v>1.214702477874258</v>
       </c>
     </row>
     <row r="23">
@@ -1093,22 +1091,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.1587768835179723</v>
+        <v>-0.1117443503069879</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.2327532113503933</v>
+        <v>-0.1849885633359197</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-1.152035741265059</v>
+        <v>-1.378995185140925</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.563955192338895</v>
+        <v>0.4822389005740781</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-0.5515858740963036</v>
+        <v>-0.5661101061760715</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.3565518155657753</v>
+        <v>0.3239568157633642</v>
       </c>
     </row>
     <row r="24">
@@ -1119,22 +1117,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>1.064447427812836</v>
+        <v>1.06557986739701</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.8015064427674193</v>
+        <v>0.7980130395697023</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.83729296354137</v>
+        <v>1.74793302929745</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>3.69811160673006</v>
+        <v>3.481720731682156</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.183388745277956</v>
+        <v>1.051492663409788</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>1.995147204650223</v>
+        <v>2.104801342464256</v>
       </c>
     </row>
     <row r="25">
@@ -1148,19 +1146,19 @@
         <v>1.774887217883282</v>
       </c>
       <c r="D25" s="6" t="n">
-        <v>1.282431004165168</v>
+        <v>1.282431004165167</v>
       </c>
       <c r="E25" s="6" t="n">
         <v>0.09226579448368397</v>
       </c>
       <c r="F25" s="6" t="n">
-        <v>0.6744705706154119</v>
+        <v>0.6744705706154117</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1949105443392904</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.7230901797190027</v>
+        <v>0.7230901797190025</v>
       </c>
     </row>
     <row r="26">
@@ -1170,23 +1168,21 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C26" s="6" t="n">
-        <v>-0.75650184477216</v>
-      </c>
+      <c r="C26" s="6" t="inlineStr"/>
       <c r="D26" s="6" t="n">
-        <v>-1</v>
+        <v>-0.914059742996749</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.3198880657465577</v>
+        <v>-0.34443489871996</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.1039089319776441</v>
+        <v>0.1122194838193059</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.2696933099593299</v>
+        <v>-0.2779690646040882</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1518544489977405</v>
+        <v>0.1454265998499688</v>
       </c>
     </row>
     <row r="27">
@@ -1199,16 +1195,16 @@
       <c r="C27" s="6" t="inlineStr"/>
       <c r="D27" s="6" t="inlineStr"/>
       <c r="E27" s="6" t="n">
-        <v>0.8373619946821834</v>
+        <v>0.7558641555261845</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>1.570275164895895</v>
+        <v>1.587873195739438</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.9214976912830937</v>
+        <v>0.817816611402988</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.6141455279857</v>
+        <v>1.665966623035083</v>
       </c>
     </row>
     <row r="28">
@@ -1226,19 +1222,19 @@
         <v>0.1983820500958198</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>0.2034222385530498</v>
+        <v>0.2034222385530499</v>
       </c>
       <c r="E28" s="5" t="n">
         <v>0.9176881319671929</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1.55850600913803</v>
+        <v>1.558506009138031</v>
       </c>
       <c r="G28" s="5" t="n">
         <v>0.569894008089376</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>0.9085793287679926</v>
+        <v>0.9085793287679923</v>
       </c>
     </row>
     <row r="29">
@@ -1249,22 +1245,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-0.05834954668352518</v>
+        <v>-0.05138945114293429</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-0.04391672545244316</v>
+        <v>-0.05657902794569823</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.1082921180954096</v>
+        <v>0.1318758936140027</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.8368595243564255</v>
+        <v>0.8082638236517281</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.1602236451798091</v>
+        <v>0.1463292159021457</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.4955386066880871</v>
+        <v>0.4846456195766934</v>
       </c>
     </row>
     <row r="30">
@@ -1275,22 +1271,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.5120214462160534</v>
+        <v>0.5278626431463447</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.5124391396896131</v>
+        <v>0.4768577283985285</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1.784444134679152</v>
+        <v>1.754138931679895</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>2.343243827075674</v>
+        <v>2.292126114336051</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>1.046016347996021</v>
+        <v>1.024773190648652</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>1.290659810943854</v>
+        <v>1.298508690792248</v>
       </c>
     </row>
     <row r="31">
@@ -1304,19 +1300,19 @@
         <v>0.9206663448150989</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>0.9440572306430043</v>
+        <v>0.9440572306430047</v>
       </c>
       <c r="E31" s="6" t="n">
         <v>0.3514991995455759</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>0.5969496560064174</v>
+        <v>0.5969496560064176</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.3971445984877748</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.633165759941218</v>
+        <v>0.6331657599412177</v>
       </c>
     </row>
     <row r="32">
@@ -1327,22 +1323,22 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.3251185697983985</v>
+        <v>-0.195621079953614</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.2478900797659909</v>
+        <v>-0.2519171447735573</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.02588815377710497</v>
+        <v>0.04194015593971989</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.2768587882989216</v>
+        <v>0.2611746488795981</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.09091547764016875</v>
+        <v>0.08472187198334312</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.2841042441982655</v>
+        <v>0.2788686282539302</v>
       </c>
     </row>
     <row r="33">
@@ -1353,22 +1349,22 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>4.240762428655777</v>
+        <v>5.478454936634195</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>4.279336668101757</v>
+        <v>4.683098122380041</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.7944811029312184</v>
+        <v>0.7942116795100648</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>1.083634124264173</v>
+        <v>1.052111146913902</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.8315039481067505</v>
+        <v>0.8193042857743783</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>1.042886596341177</v>
+        <v>1.067091684941864</v>
       </c>
     </row>
     <row r="34">
